--- a/2019_mendenhall_usgs/budget_burnett.xlsx
+++ b/2019_mendenhall_usgs/budget_burnett.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10123"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaburnett/Dropbox/apps_awards_jobs_etc/proposals/postdocs/2019_mendenhall_usgs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaburnett/Documents/GitHub/myResearchProposals/2019_mendenhall_usgs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377D787C-1E3D-3C40-B69E-A17588FD1BCA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F35F1F7-939E-D14C-A985-D66E065B13EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33500" yWindow="-3140" windowWidth="28800" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,17 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>Year 2</t>
-  </si>
-  <si>
-    <t>Year 1</t>
-  </si>
-  <si>
     <t>FUNDING REQUESTED</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
     <t>Conference registration</t>
   </si>
   <si>
-    <t>TOTAL CONFERENCE TRAVEL SUPPORT REQUESTED</t>
-  </si>
-  <si>
     <t xml:space="preserve">iii. Local &amp; regional conference travel </t>
   </si>
   <si>
@@ -74,36 +65,25 @@
     <t>i. Ecological Society of America 2020 (Utah)</t>
   </si>
   <si>
-    <t>ii. The Wildlife Society 2020 ()</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total </t>
   </si>
   <si>
     <t>Estimated Cost</t>
   </si>
   <si>
-    <t>C. FELLOW SUPPORT*</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Fellow support salary does not include costs associated with overhead and benefits. Salary for Denver-Aurora locality adjustment at grade GS-12 Step 01 (Year 1) and Step 02 (Year 2)</t>
-    </r>
-  </si>
-  <si>
     <t>Computer</t>
   </si>
   <si>
     <t>Ergonomic desk, keyboard, mouse</t>
+  </si>
+  <si>
+    <t>COMPUTING SUPPORT REQUESTED</t>
+  </si>
+  <si>
+    <t>CONFERENCE TRAVEL SUPPORT REQUESTED</t>
+  </si>
+  <si>
+    <t>ii. The Wildlife Society 2020</t>
   </si>
 </sst>
 </file>
@@ -115,7 +95,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,12 +119,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -292,9 +266,6 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -302,16 +273,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -322,6 +293,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -604,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -623,19 +597,19 @@
     <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>15</v>
+      <c r="E1" s="30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
-        <v>5</v>
+      <c r="A2" s="32" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -643,18 +617,18 @@
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="20"/>
       <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36" t="s">
-        <v>6</v>
+      <c r="A4" s="34"/>
+      <c r="B4" s="35" t="s">
+        <v>4</v>
       </c>
       <c r="C4" s="9">
         <v>125</v>
@@ -668,9 +642,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36" t="s">
-        <v>7</v>
+      <c r="A5" s="34"/>
+      <c r="B5" s="35" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="9">
         <v>56</v>
@@ -684,9 +658,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36" t="s">
-        <v>8</v>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="9">
         <v>450</v>
@@ -700,9 +674,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36" t="s">
-        <v>9</v>
+      <c r="A7" s="34"/>
+      <c r="B7" s="35" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="9">
         <v>350</v>
@@ -716,18 +690,18 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="21"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36" t="s">
-        <v>6</v>
+      <c r="A9" s="34"/>
+      <c r="B9" s="35" t="s">
+        <v>4</v>
       </c>
       <c r="C9" s="9">
         <v>122</v>
@@ -741,9 +715,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36" t="s">
-        <v>7</v>
+      <c r="A10" s="34"/>
+      <c r="B10" s="35" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="9">
         <v>61</v>
@@ -757,9 +731,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36" t="s">
-        <v>8</v>
+      <c r="A11" s="34"/>
+      <c r="B11" s="35" t="s">
+        <v>6</v>
       </c>
       <c r="C11" s="9">
         <v>700</v>
@@ -773,9 +747,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36" t="s">
-        <v>9</v>
+      <c r="A12" s="34"/>
+      <c r="B12" s="35" t="s">
+        <v>7</v>
       </c>
       <c r="C12" s="9">
         <v>350</v>
@@ -789,18 +763,18 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="21"/>
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36" t="s">
-        <v>12</v>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35" t="s">
+        <v>9</v>
       </c>
       <c r="C14" s="9">
         <v>250</v>
@@ -815,8 +789,8 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
-      <c r="B15" s="37" t="s">
-        <v>9</v>
+      <c r="B15" s="36" t="s">
+        <v>7</v>
       </c>
       <c r="C15" s="12">
         <v>350</v>
@@ -833,8 +807,8 @@
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
-      <c r="D16" s="30" t="s">
-        <v>10</v>
+      <c r="D16" s="40" t="s">
+        <v>16</v>
       </c>
       <c r="E16" s="29">
         <f>SUM(E3:E15)</f>
@@ -842,8 +816,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
-        <v>4</v>
+      <c r="A17" s="32" t="s">
+        <v>2</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -851,25 +825,25 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C18" s="9">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="D18" s="21">
         <v>1</v>
       </c>
       <c r="E18" s="10">
         <f>C18+D18</f>
-        <v>1601</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C19" s="12">
         <v>450</v>
@@ -886,88 +860,51 @@
       <c r="A20" s="26"/>
       <c r="B20" s="27"/>
       <c r="C20" s="28"/>
-      <c r="D20" s="30" t="s">
-        <v>10</v>
+      <c r="D20" s="40" t="s">
+        <v>15</v>
       </c>
       <c r="E20" s="29">
         <f>SUM(E7:E19)</f>
-        <v>9922</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="7"/>
+        <v>11322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="16"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
-      <c r="B22" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="9">
-        <v>79799</v>
-      </c>
-      <c r="D22" s="21">
+    <row r="22" spans="1:8" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="D22" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="10">
-        <f>C22+D22</f>
-        <v>79800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="15">
-        <v>82459</v>
-      </c>
-      <c r="D23" s="23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="16">
-        <f t="shared" ref="E23" si="2">C23+D23</f>
-        <v>82460</v>
-      </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="D24" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="38">
-        <f>SUM(E2:E23)</f>
-        <v>183640</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="49.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-    </row>
-    <row r="26" spans="1:8" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="E22" s="37">
+        <f>SUM(E2:E21)</f>
+        <v>24180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="49.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+    </row>
+    <row r="24" spans="1:8" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/2019_mendenhall_usgs/budget_burnett.xlsx
+++ b/2019_mendenhall_usgs/budget_burnett.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaburnett/Documents/GitHub/myResearchProposals/2019_mendenhall_usgs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F35F1F7-939E-D14C-A985-D66E065B13EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79CD13B-F6E1-5E46-B09A-FF340A90BF8B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Quantity</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Conference registration</t>
   </si>
   <si>
-    <t xml:space="preserve">iii. Local &amp; regional conference travel </t>
-  </si>
-  <si>
     <t>Ground transport</t>
   </si>
   <si>
@@ -74,16 +71,34 @@
     <t>Computer</t>
   </si>
   <si>
-    <t>Ergonomic desk, keyboard, mouse</t>
-  </si>
-  <si>
     <t>COMPUTING SUPPORT REQUESTED</t>
   </si>
   <si>
     <t>CONFERENCE TRAVEL SUPPORT REQUESTED</t>
   </si>
   <si>
-    <t>ii. The Wildlife Society 2020</t>
+    <t>Meals &amp; Lodging  at NCTC (daily fixed rate)</t>
+  </si>
+  <si>
+    <t>Non-NCTC  M&amp;IE</t>
+  </si>
+  <si>
+    <t>Workshop fee</t>
+  </si>
+  <si>
+    <t>Ergonomic supplies (desk, keyboard, mouse)</t>
+  </si>
+  <si>
+    <t>ii. Decision Science Course (e.g. NCTC ALC 3190)</t>
+  </si>
+  <si>
+    <t>iii. Decision Science Course (e.g. NCTC ALC 3191)</t>
+  </si>
+  <si>
+    <t>iv. The Wildlife Society 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v. Local &amp; regional (CO) conference/meeting travel </t>
   </si>
 </sst>
 </file>
@@ -288,14 +303,14 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -578,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,13 +613,13 @@
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -619,7 +634,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
       <c r="B3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="20"/>
@@ -690,44 +705,44 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="34"/>
       <c r="B9" s="35" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="D9" s="21">
         <v>5</v>
       </c>
       <c r="E9" s="10">
         <f>D9*C9</f>
-        <v>610</v>
+        <v>720</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="34"/>
       <c r="B10" s="35" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C10" s="9">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D10" s="21">
         <v>5</v>
       </c>
       <c r="E10" s="10">
         <f>D10*C10</f>
-        <v>305</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -736,175 +751,321 @@
         <v>6</v>
       </c>
       <c r="C11" s="9">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="D11" s="21">
         <v>1</v>
       </c>
       <c r="E11" s="10">
         <f>D11*C11</f>
-        <v>700</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="34"/>
       <c r="B12" s="35" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C12" s="9">
-        <v>350</v>
+        <v>995</v>
       </c>
       <c r="D12" s="21">
         <v>1</v>
       </c>
       <c r="E12" s="10">
         <f>D12*C12</f>
-        <v>350</v>
+        <v>995</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="10"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="34"/>
       <c r="B14" s="35" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C14" s="9">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="D14" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E14" s="10">
         <f>D14*C14</f>
-        <v>500</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="12">
-        <v>350</v>
-      </c>
-      <c r="D15" s="22">
-        <v>2</v>
-      </c>
-      <c r="E15" s="13">
-        <f t="shared" ref="E15" si="0">C15+D15</f>
-        <v>352</v>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="9">
+        <v>56</v>
+      </c>
+      <c r="D15" s="21">
+        <v>5</v>
+      </c>
+      <c r="E15" s="10">
+        <f>D15*C15</f>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="29">
-        <f>SUM(E3:E15)</f>
-        <v>4703</v>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="9">
+        <v>450</v>
+      </c>
+      <c r="D16" s="21">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <f>D16*C16</f>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="7"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9">
+        <v>995</v>
+      </c>
+      <c r="D17" s="21">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
+        <f>D17*C17</f>
+        <v>995</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="9">
+        <v>122</v>
+      </c>
+      <c r="D19" s="21">
+        <v>5</v>
+      </c>
+      <c r="E19" s="10">
+        <f>D19*C19</f>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="9">
+        <v>61</v>
+      </c>
+      <c r="D20" s="21">
+        <v>5</v>
+      </c>
+      <c r="E20" s="10">
+        <f>D20*C20</f>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="9">
+        <v>700</v>
+      </c>
+      <c r="D21" s="21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10">
+        <f>D21*C21</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="34"/>
+      <c r="B22" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="9">
+        <v>350</v>
+      </c>
+      <c r="D22" s="21">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
+        <f>D22*C22</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="34"/>
+      <c r="B23" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="34"/>
+      <c r="B24" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="9">
+        <v>250</v>
+      </c>
+      <c r="D24" s="21">
+        <v>2</v>
+      </c>
+      <c r="E24" s="10">
+        <f>D24*C24</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="26"/>
+      <c r="B25" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="12">
+        <v>350</v>
+      </c>
+      <c r="D25" s="22">
+        <v>2</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" ref="E25" si="0">C25+D25</f>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="29">
+        <f>SUM(E3:E25)</f>
+        <v>9593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="35"/>
+      <c r="B28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D28" s="21">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10">
+        <f>C28+D28</f>
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="12">
+        <v>500</v>
+      </c>
+      <c r="D29" s="22">
+        <v>1</v>
+      </c>
+      <c r="E29" s="13">
+        <f>C29*D29</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="9">
-        <v>3000</v>
-      </c>
-      <c r="D18" s="21">
+      <c r="E30" s="29">
+        <f>SUM(E7:E29)</f>
+        <v>21151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="16"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="D32" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="10">
-        <f>C18+D18</f>
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="12">
-        <v>450</v>
-      </c>
-      <c r="D19" s="22">
-        <v>1</v>
-      </c>
-      <c r="E19" s="13">
-        <f t="shared" ref="E19" si="1">C19+D19</f>
-        <v>451</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="29">
-        <f>SUM(E7:E19)</f>
-        <v>11322</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="16"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="D22" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="37">
-        <f>SUM(E2:E21)</f>
-        <v>24180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="49.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-    </row>
-    <row r="24" spans="1:8" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
+      <c r="E32" s="37">
+        <f>SUM(E2:E31)</f>
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="49.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+    </row>
+    <row r="34" spans="1:5" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/2019_mendenhall_usgs/budget_burnett.xlsx
+++ b/2019_mendenhall_usgs/budget_burnett.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaburnett/Documents/GitHub/myResearchProposals/2019_mendenhall_usgs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79CD13B-F6E1-5E46-B09A-FF340A90BF8B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B243F31A-A54C-7645-BDD9-7FB479F754A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -595,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1025,8 +1026,8 @@
         <v>13</v>
       </c>
       <c r="E30" s="29">
-        <f>SUM(E7:E29)</f>
-        <v>21151</v>
+        <f>SUM(E26:E29)</f>
+        <v>13094</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1045,7 +1046,7 @@
       </c>
       <c r="E32" s="37">
         <f>SUM(E2:E31)</f>
-        <v>43838</v>
+        <v>35781</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="49.75" customHeight="1" x14ac:dyDescent="0.2">
